--- a/Filtered_By_Region/CARAGA/CARAGA_REPAIR.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_REPAIR.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +670,11 @@
           <t>Unnamed: 46</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -719,7 +725,6 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -728,8 +733,6 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
           <t>2020-001</t>
@@ -740,17 +743,11 @@
           <t>2020-001</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALCT Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -793,16 +790,11 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -858,7 +850,6 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -867,8 +858,6 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
           <t>2020-002</t>
@@ -879,17 +868,11 @@
           <t>2020-002</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALCT Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -932,16 +915,11 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -997,7 +975,6 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1006,8 +983,6 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>2020-004</t>
@@ -1018,17 +993,11 @@
           <t>2020-004</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
           <t>MAIR Construction General Merchandise</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1071,16 +1040,11 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1136,7 +1100,6 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1145,8 +1108,6 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>2020-003</t>
@@ -1157,17 +1118,11 @@
           <t>2020-003</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ETP Builders</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1210,19 +1165,87 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AV2:AV5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/CARAGA/CARAGA_REPAIR.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_REPAIR.xlsx
@@ -748,47 +748,8 @@
           <t>ALCT Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
       <c r="AM2" t="n">
         <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -873,47 +834,8 @@
           <t>ALCT Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
       <c r="AM3" t="n">
         <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -998,47 +920,8 @@
           <t>MAIR Construction General Merchandise</t>
         </is>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
       <c r="AM4" t="n">
         <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
@@ -1123,47 +1006,8 @@
           <t>ETP Builders</t>
         </is>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
       <c r="AM5" t="n">
         <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>

--- a/Filtered_By_Region/CARAGA/CARAGA_REPAIR.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_REPAIR.xlsx
@@ -56,11 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,404 +627,491 @@
           <t>No. of CL Terminated</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>PREVIOUS ACCOMPLISHMENT</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>DIFFERENCE</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Projected Date of Completion</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Month Completed</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites (original)</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Classrooms (original)</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Project Allocation (original)</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>BBM TERM COMPLETED</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AM1" s="2" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>131600</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Katipunan ES</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="3" t="n">
         <v>3279775</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="inlineStr"/>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="inlineStr"/>
+      <c r="Q2" s="3" t="inlineStr"/>
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>2020-001</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>2020-001</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr"/>
+      <c r="U2" s="3" t="inlineStr"/>
+      <c r="V2" s="3" t="inlineStr"/>
+      <c r="W2" s="3" t="inlineStr"/>
+      <c r="X2" s="3" t="inlineStr"/>
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>ALCT Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="Z2" s="3" t="inlineStr"/>
+      <c r="AA2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>131601</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Kiawan ES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="3" t="n">
         <v>1533187</v>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="inlineStr"/>
+      <c r="Q3" s="3" t="inlineStr"/>
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>2020-002</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>2020-002</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr"/>
+      <c r="U3" s="3" t="inlineStr"/>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="3" t="inlineStr"/>
+      <c r="X3" s="3" t="inlineStr"/>
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>ALCT Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="Z3" s="3" t="inlineStr"/>
+      <c r="AA3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>131636</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>New Leyte ES</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="3" t="n">
         <v>2208541</v>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="L4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="inlineStr"/>
+      <c r="Q4" s="3" t="inlineStr"/>
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>2020-004</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>2020-004</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr"/>
+      <c r="U4" s="3" t="inlineStr"/>
+      <c r="V4" s="3" t="inlineStr"/>
+      <c r="W4" s="3" t="inlineStr"/>
+      <c r="X4" s="3" t="inlineStr"/>
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>MAIR Construction General Merchandise</t>
         </is>
       </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="Z4" s="3" t="inlineStr"/>
+      <c r="AA4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>131611</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>San Isidro ES</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="3" t="n">
         <v>3082265</v>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="L5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="O5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr"/>
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>2020-003</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>2020-003</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr"/>
+      <c r="W5" s="3" t="inlineStr"/>
+      <c r="X5" s="3" t="inlineStr"/>
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>ETP Builders</t>
         </is>
       </c>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="Z5" s="3" t="inlineStr"/>
+      <c r="AA5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AV2:AV5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AM2:AM5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/CARAGA/CARAGA_REPAIR.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_REPAIR.xlsx
@@ -30,12 +30,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,13 +62,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,683 +443,725 @@
   <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="39" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="23" customWidth="1" min="27" max="27"/>
+    <col width="30" customWidth="1" min="28" max="28"/>
+    <col width="32" customWidth="1" min="29" max="29"/>
+    <col width="23" customWidth="1" min="30" max="30"/>
+    <col width="24" customWidth="1" min="31" max="31"/>
+    <col width="20" customWidth="1" min="32" max="32"/>
+    <col width="27" customWidth="1" min="33" max="33"/>
+    <col width="29" customWidth="1" min="34" max="34"/>
+    <col width="20" customWidth="1" min="35" max="35"/>
+    <col width="21" customWidth="1" min="36" max="36"/>
+    <col width="25" customWidth="1" min="37" max="37"/>
+    <col width="22" customWidth="1" min="38" max="38"/>
+    <col width="28" customWidth="1" min="39" max="39"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>No. of Sites Reverted</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>No. of Sites Not yet started</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>No. of Sites Under Procurement</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>No. of Sites On Going</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>No. of Sites Completed</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" s="2" t="inlineStr">
         <is>
           <t>No. of CL Reverted</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" s="2" t="inlineStr">
         <is>
           <t>No. of CL Not yet started</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" s="2" t="inlineStr">
         <is>
           <t>No. of CL Under Procurement</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" s="2" t="inlineStr">
         <is>
           <t>No. of CL On Going</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" s="2" t="inlineStr">
         <is>
           <t>No. of CL Completed</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" s="2" t="inlineStr">
         <is>
           <t>No. of Sites Terminated</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" s="2" t="inlineStr">
         <is>
           <t>No. of CL Terminated</t>
         </is>
       </c>
-      <c r="AM1" s="2" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AM1" s="3" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>131600</v>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Katipunan ES</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="n">
+      <c r="G2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="4" t="n">
         <v>3279775</v>
       </c>
-      <c r="L2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="inlineStr"/>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="inlineStr"/>
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="inlineStr"/>
-      <c r="Q2" s="3" t="inlineStr"/>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="inlineStr"/>
+      <c r="Q2" s="4" t="inlineStr"/>
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>2020-001</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>2020-001</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr"/>
-      <c r="U2" s="3" t="inlineStr"/>
-      <c r="V2" s="3" t="inlineStr"/>
-      <c r="W2" s="3" t="inlineStr"/>
-      <c r="X2" s="3" t="inlineStr"/>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr"/>
+      <c r="U2" s="4" t="inlineStr"/>
+      <c r="V2" s="4" t="inlineStr"/>
+      <c r="W2" s="4" t="inlineStr"/>
+      <c r="X2" s="4" t="inlineStr"/>
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>ALCT Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z2" s="3" t="inlineStr"/>
-      <c r="AA2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="Z2" s="4" t="inlineStr"/>
+      <c r="AA2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="AK2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="3" t="n"/>
+      <c r="AK2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>131601</v>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Kiawan ES</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="n">
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="4" t="n">
         <v>1533187</v>
       </c>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="inlineStr"/>
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3" t="inlineStr"/>
-      <c r="Q3" s="3" t="inlineStr"/>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="inlineStr"/>
+      <c r="Q3" s="4" t="inlineStr"/>
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>2020-002</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>2020-002</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr"/>
-      <c r="U3" s="3" t="inlineStr"/>
-      <c r="V3" s="3" t="inlineStr"/>
-      <c r="W3" s="3" t="inlineStr"/>
-      <c r="X3" s="3" t="inlineStr"/>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr"/>
+      <c r="U3" s="4" t="inlineStr"/>
+      <c r="V3" s="4" t="inlineStr"/>
+      <c r="W3" s="4" t="inlineStr"/>
+      <c r="X3" s="4" t="inlineStr"/>
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>ALCT Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Z3" s="3" t="inlineStr"/>
-      <c r="AA3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="Z3" s="4" t="inlineStr"/>
+      <c r="AA3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="AK3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="3" t="n"/>
+      <c r="AK3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>131636</v>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>New Leyte ES</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="n">
+      <c r="G4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <v>2208541</v>
       </c>
-      <c r="L4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="inlineStr"/>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="inlineStr"/>
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="inlineStr"/>
-      <c r="Q4" s="3" t="inlineStr"/>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="inlineStr"/>
+      <c r="Q4" s="4" t="inlineStr"/>
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>2020-004</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>2020-004</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr"/>
-      <c r="U4" s="3" t="inlineStr"/>
-      <c r="V4" s="3" t="inlineStr"/>
-      <c r="W4" s="3" t="inlineStr"/>
-      <c r="X4" s="3" t="inlineStr"/>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr"/>
+      <c r="U4" s="4" t="inlineStr"/>
+      <c r="V4" s="4" t="inlineStr"/>
+      <c r="W4" s="4" t="inlineStr"/>
+      <c r="X4" s="4" t="inlineStr"/>
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>MAIR Construction General Merchandise</t>
         </is>
       </c>
-      <c r="Z4" s="3" t="inlineStr"/>
-      <c r="AA4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="Z4" s="4" t="inlineStr"/>
+      <c r="AA4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="AK4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="3" t="n"/>
+      <c r="AK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>REPAIR 2020</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>131611</v>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>San Isidro ES</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="n">
+      <c r="G5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
         </is>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="4" t="n">
         <v>3082265</v>
       </c>
-      <c r="L5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="inlineStr"/>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="L5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="inlineStr"/>
-      <c r="Q5" s="3" t="inlineStr"/>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="inlineStr"/>
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>2020-003</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>2020-003</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr"/>
-      <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="3" t="inlineStr"/>
-      <c r="W5" s="3" t="inlineStr"/>
-      <c r="X5" s="3" t="inlineStr"/>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr"/>
+      <c r="U5" s="4" t="inlineStr"/>
+      <c r="V5" s="4" t="inlineStr"/>
+      <c r="W5" s="4" t="inlineStr"/>
+      <c r="X5" s="4" t="inlineStr"/>
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>ETP Builders</t>
         </is>
       </c>
-      <c r="Z5" s="3" t="inlineStr"/>
-      <c r="AA5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="Z5" s="4" t="inlineStr"/>
+      <c r="AA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="AK5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="3" t="n"/>
+      <c r="AK5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
